--- a/StructureDefinition-sars-cov2-variant.xlsx
+++ b/StructureDefinition-sars-cov2-variant.xlsx
@@ -11453,7 +11453,7 @@
         <v>73</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="X92" s="2"/>
       <c r="Y92" t="s" s="2">
